--- a/Benmarking Results.xlsx
+++ b/Benmarking Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\CP431 - PP\Group Project - A2\parallel-merge-of-two-sorted-arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F128CBD-4123-499E-9CA5-94626ACD8330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A774D2-B4F0-4D1F-B96D-5B03F26AD963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{BF1CE692-A629-4B4B-8B43-5B2A8F57F195}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{BF1CE692-A629-4B4B-8B43-5B2A8F57F195}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,8 +129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3A9BE8B-A476-4CA2-917D-BFF2A75522D6}" name="Table1" displayName="Table1" ref="B2:I11" totalsRowShown="0">
-  <autoFilter ref="B2:I11" xr:uid="{B3A9BE8B-A476-4CA2-917D-BFF2A75522D6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3A9BE8B-A476-4CA2-917D-BFF2A75522D6}" name="Table1" displayName="Table1" ref="B2:I9" totalsRowShown="0">
+  <autoFilter ref="B2:I9" xr:uid="{B3A9BE8B-A476-4CA2-917D-BFF2A75522D6}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{84E1B149-C1EA-4BBF-BA00-254073B76BC7}" name="Job ID" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{FC315BFF-9434-4980-8811-010D48A278DD}" name="Nodes"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6951F1FE-12C3-48BB-8F06-9D581F9DC785}">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E10" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E8" si="0">C4*D4</f>
         <v>6</v>
       </c>
       <c r="F4">
@@ -598,43 +598,55 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>281508</v>
+        <v>281483</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7" si="1">C7*D7</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>180000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <f>160*2</f>
+        <v>320</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.942049E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.8387810000000001E-4</v>
+      </c>
       <c r="I7" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>281509</v>
+        <v>281485</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>240000</v>
+        <f>1600*2</f>
+        <v>3200</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.051291E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.5705690000000003E-4</v>
       </c>
       <c r="I8" s="1">
         <v>1.0000000000000001E-9</v>
@@ -642,7 +654,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>281483</v>
+        <v>281490</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -651,77 +663,27 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>C9*D9</f>
         <v>16</v>
       </c>
       <c r="F9">
-        <f>160*2</f>
-        <v>320</v>
+        <v>32000</v>
       </c>
       <c r="G9" s="1">
-        <v>2.942049E-3</v>
+        <v>4.7620719999999998E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>1.8387810000000001E-4</v>
+        <v>2.9762949999999999E-3</v>
       </c>
       <c r="I9" s="1">
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>281485</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <f>1600*2</f>
-        <v>3200</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.051291E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6.5705690000000003E-4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>281490</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <f>C11*D11</f>
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>32000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4.7620719999999998E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.9762949999999999E-3</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.0000000000000001E-9</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
@@ -737,12 +699,6 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Benmarking Results.xlsx
+++ b/Benmarking Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\CP431 - PP\Group Project - A2\parallel-merge-of-two-sorted-arrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A774D2-B4F0-4D1F-B96D-5B03F26AD963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B3173-EC36-4803-8202-A8354CEA6EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{BF1CE692-A629-4B4B-8B43-5B2A8F57F195}"/>
+    <workbookView xWindow="13490" yWindow="-3090" windowWidth="22620" windowHeight="13500" xr2:uid="{BF1CE692-A629-4B4B-8B43-5B2A8F57F195}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,8 +129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3A9BE8B-A476-4CA2-917D-BFF2A75522D6}" name="Table1" displayName="Table1" ref="B2:I9" totalsRowShown="0">
-  <autoFilter ref="B2:I9" xr:uid="{B3A9BE8B-A476-4CA2-917D-BFF2A75522D6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3A9BE8B-A476-4CA2-917D-BFF2A75522D6}" name="Table1" displayName="Table1" ref="B2:I11" totalsRowShown="0">
+  <autoFilter ref="B2:I11" xr:uid="{B3A9BE8B-A476-4CA2-917D-BFF2A75522D6}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{84E1B149-C1EA-4BBF-BA00-254073B76BC7}" name="Job ID" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{FC315BFF-9434-4980-8811-010D48A278DD}" name="Nodes"/>
@@ -447,7 +447,7 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +680,52 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>284051</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <f>Table1[[#This Row],[Number of processes ]]*2*10000</f>
+        <v>640000</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>284052</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f>C11*D11</f>
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <f>Table1[[#This Row],[Number of processes ]]*2*10000</f>
+        <v>640000</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>1.0000000000000001E-9</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
